--- a/Result/Q1_rmse_per_step_N100.xlsx
+++ b/Result/Q1_rmse_per_step_N100.xlsx
@@ -470,19 +470,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1079021772399102</v>
+        <v>0.4251699750123861</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1134224645308993</v>
+        <v>0.3001721712485908</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1760131780257266</v>
+        <v>0.2964382083075872</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2208631208527423</v>
+        <v>0.4554592616994411</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03644644684683893</v>
+        <v>1.870470778146537</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.912807861766928</v>
+        <v>0.9014476403943233</v>
       </c>
       <c r="C3" t="n">
-        <v>1.869444219159307</v>
+        <v>0.8921057544359082</v>
       </c>
       <c r="D3" t="n">
-        <v>1.856366961477957</v>
+        <v>0.8882873861033482</v>
       </c>
       <c r="E3" t="n">
-        <v>1.51017902954641</v>
+        <v>0.9057504792032122</v>
       </c>
       <c r="F3" t="n">
-        <v>1.935738398528847</v>
+        <v>1.462010295188141</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.60857996043209</v>
+        <v>2.361233297781814</v>
       </c>
       <c r="C4" t="n">
-        <v>36.24512219610599</v>
+        <v>6.391919537073174</v>
       </c>
       <c r="D4" t="n">
-        <v>1.141471882978894</v>
+        <v>4.924535967370712</v>
       </c>
       <c r="E4" t="n">
-        <v>1.589573927115</v>
+        <v>1.997101716933929</v>
       </c>
       <c r="F4" t="n">
-        <v>1.733110555234936</v>
+        <v>2.721758436594516</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.0850160971052</v>
+        <v>4.195139811249122</v>
       </c>
       <c r="C5" t="n">
-        <v>15.12569236157717</v>
+        <v>4.825270009550001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3063734578171601</v>
+        <v>4.641846154797982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5719461364237204</v>
+        <v>3.894943744585146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2984974179636002</v>
+        <v>4.690851708040741</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07890351211341046</v>
+        <v>2.047684857249107</v>
       </c>
       <c r="C6" t="n">
-        <v>5.998728936875111</v>
+        <v>1.496388592592965</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7290461633925718</v>
+        <v>1.86197815757688</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8439119204013468</v>
+        <v>0.9096550573787363</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8124002578604085</v>
+        <v>2.834185107935421</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.666589394929569</v>
+        <v>2.225821955804369</v>
       </c>
       <c r="C7" t="n">
-        <v>11.64979591072956</v>
+        <v>2.515648317027804</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3784276908518364</v>
+        <v>2.311603448456938</v>
       </c>
       <c r="E7" t="n">
-        <v>2.547003080663693</v>
+        <v>1.453782870822</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9485369841728554</v>
+        <v>2.102072305238708</v>
       </c>
     </row>
     <row r="8">
@@ -590,19 +590,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2498026473389113</v>
+        <v>1.96593935527836</v>
       </c>
       <c r="C8" t="n">
-        <v>15.17896139320206</v>
+        <v>2.608678379857485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2438996501783524</v>
+        <v>3.185681108301273</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2374219370697305</v>
+        <v>0.9872035550354339</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2355509974782533</v>
+        <v>1.908754371555012</v>
       </c>
     </row>
     <row r="9">
@@ -610,19 +610,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4291674753267</v>
+        <v>1.795737660957754</v>
       </c>
       <c r="C9" t="n">
-        <v>6.211555012291917</v>
+        <v>2.265603276071101</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6626453935885441</v>
+        <v>2.368602935661527</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5341022470716867</v>
+        <v>1.21060243469638</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7329013186060053</v>
+        <v>1.770814217929693</v>
       </c>
     </row>
     <row r="10">
@@ -630,19 +630,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.165092783544374</v>
+        <v>7.761631218697476</v>
       </c>
       <c r="C10" t="n">
-        <v>12.44209006053163</v>
+        <v>7.510636952380592</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3441745741805488</v>
+        <v>8.367927044912253</v>
       </c>
       <c r="E10" t="n">
-        <v>3.508983970396757</v>
+        <v>6.988533195974606</v>
       </c>
       <c r="F10" t="n">
-        <v>9.403256590504668</v>
+        <v>7.47817008051324</v>
       </c>
     </row>
     <row r="11">
@@ -650,19 +650,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5641240443915212</v>
+        <v>2.289488558011678</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6390087972272626</v>
+        <v>3.994555331845863</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3867019532874132</v>
+        <v>7.257105756408671</v>
       </c>
       <c r="E11" t="n">
-        <v>0.610829508239383</v>
+        <v>1.200053434287466</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5120778386588061</v>
+        <v>3.097516988745089</v>
       </c>
     </row>
     <row r="12">
@@ -670,19 +670,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.718718176992382</v>
+        <v>3.564874627512439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2261476013080344</v>
+        <v>5.461847857491341</v>
       </c>
       <c r="D12" t="n">
-        <v>0.224674476540673</v>
+        <v>9.701732667501743</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3954276865599056</v>
+        <v>2.453636131077739</v>
       </c>
       <c r="F12" t="n">
-        <v>2.503481262316</v>
+        <v>3.948196449484222</v>
       </c>
     </row>
     <row r="13">
@@ -690,19 +690,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3058071719908257</v>
+        <v>3.972021840027317</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1843641691492411</v>
+        <v>4.026220757244031</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1906224051790172</v>
+        <v>8.39654248619707</v>
       </c>
       <c r="E13" t="n">
-        <v>0.229137123765875</v>
+        <v>2.634868247251632</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2119363491695966</v>
+        <v>3.887570547497325</v>
       </c>
     </row>
     <row r="14">
@@ -710,19 +710,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4298073275478223</v>
+        <v>2.405051894703048</v>
       </c>
       <c r="C14" t="n">
-        <v>0.497244308611578</v>
+        <v>1.638138825791833</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4802410246813385</v>
+        <v>6.316519721531301</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5264514080179495</v>
+        <v>1.46842695484276</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4528869711137724</v>
+        <v>2.966701613387285</v>
       </c>
     </row>
     <row r="15">
@@ -730,19 +730,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1.683956275888499</v>
+        <v>3.38527639300933</v>
       </c>
       <c r="C15" t="n">
-        <v>3.146251046712675</v>
+        <v>3.47951899832489</v>
       </c>
       <c r="D15" t="n">
-        <v>2.219664828970684</v>
+        <v>5.843270492261361</v>
       </c>
       <c r="E15" t="n">
-        <v>2.352470203397913</v>
+        <v>2.701989641349072</v>
       </c>
       <c r="F15" t="n">
-        <v>2.882228413208688</v>
+        <v>3.273098893146994</v>
       </c>
     </row>
     <row r="16">
@@ -750,19 +750,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6993708251365029</v>
+        <v>1.899245366633054</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4607746420560248</v>
+        <v>3.623813974989509</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5272237492374313</v>
+        <v>6.090890367875693</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6461234990620136</v>
+        <v>1.294117131891363</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7239522829128602</v>
+        <v>2.437950299495237</v>
       </c>
     </row>
     <row r="17">
@@ -770,19 +770,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>1.496808887444047</v>
+        <v>1.969968152146029</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9006257499629011</v>
+        <v>4.070367030893776</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5635741385271752</v>
+        <v>6.43326763750473</v>
       </c>
       <c r="E17" t="n">
-        <v>1.062384301732143</v>
+        <v>1.344901470577826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9932570537520493</v>
+        <v>2.677442730652085</v>
       </c>
     </row>
     <row r="18">
@@ -790,19 +790,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>1.126980197481369</v>
+        <v>7.862465857377514</v>
       </c>
       <c r="C18" t="n">
-        <v>2.918263376720914</v>
+        <v>8.004880391677098</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4967538715309132</v>
+        <v>9.855734584581446</v>
       </c>
       <c r="E18" t="n">
-        <v>2.357738672778645</v>
+        <v>7.106750099920403</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7177873404646486</v>
+        <v>8.86543017475085</v>
       </c>
     </row>
     <row r="19">
@@ -810,19 +810,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2722337225392135</v>
+        <v>2.263652234129764</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2027469926146525</v>
+        <v>1.674600213963864</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2026655472068455</v>
+        <v>6.317828962791499</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2177118498210887</v>
+        <v>0.8647412788717401</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2519767238107969</v>
+        <v>3.971030639849944</v>
       </c>
     </row>
     <row r="20">
@@ -830,19 +830,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0970871491715198</v>
+        <v>2.783149854859131</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08299305477397524</v>
+        <v>3.898461218836382</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1211675827865732</v>
+        <v>7.97610540291055</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1071879037424984</v>
+        <v>2.050757209510859</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1685163613839893</v>
+        <v>3.389658373505835</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +850,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6293858084259577</v>
+        <v>2.065985897331517</v>
       </c>
       <c r="C21" t="n">
-        <v>0.634633772680454</v>
+        <v>3.311311635032311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5986552995932115</v>
+        <v>7.340289551119213</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6184595289214033</v>
+        <v>1.37745777279922</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6007057381083142</v>
+        <v>2.852858595954488</v>
       </c>
     </row>
     <row r="22">
@@ -870,19 +870,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3175672850369606</v>
+        <v>2.118208586911236</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3901283232858681</v>
+        <v>2.565889936178909</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4130211614735207</v>
+        <v>5.935965793806735</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2682376714448919</v>
+        <v>1.317300702134728</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3108519981055869</v>
+        <v>2.504358981534226</v>
       </c>
     </row>
     <row r="23">
@@ -890,19 +890,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>5.436277257537299</v>
+        <v>4.860539796586121</v>
       </c>
       <c r="C23" t="n">
-        <v>6.070130851698306</v>
+        <v>4.821746323519235</v>
       </c>
       <c r="D23" t="n">
-        <v>11.02514809601508</v>
+        <v>7.443445311821456</v>
       </c>
       <c r="E23" t="n">
-        <v>10.24197517232935</v>
+        <v>4.316237731540246</v>
       </c>
       <c r="F23" t="n">
-        <v>11.522993146863</v>
+        <v>4.684601776237849</v>
       </c>
     </row>
     <row r="24">
@@ -910,19 +910,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>1.01716788819413</v>
+        <v>2.38266904790636</v>
       </c>
       <c r="C24" t="n">
-        <v>0.807130961921144</v>
+        <v>3.232707674892498</v>
       </c>
       <c r="D24" t="n">
-        <v>5.248209271889277</v>
+        <v>7.991383491974332</v>
       </c>
       <c r="E24" t="n">
-        <v>1.015017239354306</v>
+        <v>1.559819992954533</v>
       </c>
       <c r="F24" t="n">
-        <v>1.010149726808554</v>
+        <v>2.728426026731264</v>
       </c>
     </row>
     <row r="25">
@@ -930,19 +930,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1.869293951885643</v>
+        <v>3.232494694634425</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8973750390981355</v>
+        <v>5.75216524846889</v>
       </c>
       <c r="D25" t="n">
-        <v>10.38620918248412</v>
+        <v>10.35104884664173</v>
       </c>
       <c r="E25" t="n">
-        <v>1.042958652814763</v>
+        <v>2.165011738168385</v>
       </c>
       <c r="F25" t="n">
-        <v>2.639003829752506</v>
+        <v>3.201828287800608</v>
       </c>
     </row>
     <row r="26">
@@ -950,19 +950,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3084396096926305</v>
+        <v>4.301981006828897</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07504872338368908</v>
+        <v>4.726849411914137</v>
       </c>
       <c r="D26" t="n">
-        <v>11.87388648836307</v>
+        <v>8.271767519229806</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9913923898419301</v>
+        <v>3.483715760537961</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1659019667309126</v>
+        <v>4.591428734281053</v>
       </c>
     </row>
     <row r="27">
@@ -970,19 +970,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08963321713062634</v>
+        <v>2.382051878226799</v>
       </c>
       <c r="C27" t="n">
-        <v>0.103772099878644</v>
+        <v>1.74696326231672</v>
       </c>
       <c r="D27" t="n">
-        <v>3.13993841865519</v>
+        <v>4.868193589372613</v>
       </c>
       <c r="E27" t="n">
-        <v>0.109929367183982</v>
+        <v>0.913069069274804</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06850992537903323</v>
+        <v>2.466111731190662</v>
       </c>
     </row>
     <row r="28">
@@ -990,19 +990,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.006828520904726334</v>
+        <v>2.669521939719695</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008663654638174093</v>
+        <v>2.599193807219997</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1038493936693002</v>
+        <v>4.815519428908559</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00968793679404029</v>
+        <v>1.548901125052649</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02295121634108381</v>
+        <v>2.2662282540667</v>
       </c>
     </row>
     <row r="29">
@@ -1010,19 +1010,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.300017392733706</v>
+        <v>2.17772546210765</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4313363208430714</v>
+        <v>3.134506836105504</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3527563475313171</v>
+        <v>6.328979554341852</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1632281285100342</v>
+        <v>0.696997332317316</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4258942904402813</v>
+        <v>1.94859965114265</v>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +1030,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.612776371137703</v>
+        <v>2.067308032512214</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7174369563277228</v>
+        <v>3.172079551366819</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8129241011829869</v>
+        <v>6.946233000149318</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7908064952641189</v>
+        <v>1.09659403135554</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6936357458958042</v>
+        <v>2.166281106600663</v>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +1050,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>3.465130583748108</v>
+        <v>8.227593765886899</v>
       </c>
       <c r="C31" t="n">
-        <v>5.672741186656938</v>
+        <v>8.829431864134902</v>
       </c>
       <c r="D31" t="n">
-        <v>1.044343744998335</v>
+        <v>11.00637532165526</v>
       </c>
       <c r="E31" t="n">
-        <v>4.785782647987976</v>
+        <v>7.772000476504629</v>
       </c>
       <c r="F31" t="n">
-        <v>2.158587672286343</v>
+        <v>8.819217408940593</v>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +1070,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5027658346754329</v>
+        <v>2.196512093448933</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4082576252582792</v>
+        <v>1.967896777243654</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5468286145814417</v>
+        <v>6.796008579255189</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4646563362023082</v>
+        <v>0.8891059672152395</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5273443619131151</v>
+        <v>3.632185726665808</v>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +1090,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1044185807161489</v>
+        <v>3.083794026602936</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1450289566646863</v>
+        <v>3.882303310921304</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1513699821902456</v>
+        <v>9.420147795296057</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2808410296885017</v>
+        <v>1.849570776316066</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1166861709625067</v>
+        <v>3.618567220830321</v>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1110,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1761489931809993</v>
+        <v>2.531276860434937</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07609960834607603</v>
+        <v>3.131814141379445</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1253756688905348</v>
+        <v>7.760273332390426</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2170608080569937</v>
+        <v>1.636597376879463</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1282947100328593</v>
+        <v>3.544724161302749</v>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1130,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1.176333151625236</v>
+        <v>1.891595817605799</v>
       </c>
       <c r="C35" t="n">
-        <v>1.026182655925739</v>
+        <v>1.961767092474459</v>
       </c>
       <c r="D35" t="n">
-        <v>1.082626809643137</v>
+        <v>6.030198417509829</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7463095069036436</v>
+        <v>0.7802883831717413</v>
       </c>
       <c r="F35" t="n">
-        <v>1.066299541940222</v>
+        <v>2.694471209055585</v>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1150,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>2.019936935475716</v>
+        <v>3.318802550261421</v>
       </c>
       <c r="C36" t="n">
-        <v>3.115530213579558</v>
+        <v>3.988987216491004</v>
       </c>
       <c r="D36" t="n">
-        <v>6.097417876412588</v>
+        <v>6.378212558913742</v>
       </c>
       <c r="E36" t="n">
-        <v>1.389346024802595</v>
+        <v>2.99420645122132</v>
       </c>
       <c r="F36" t="n">
-        <v>2.486028081237365</v>
+        <v>3.80666991200988</v>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1170,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1.989177227488202</v>
+        <v>2.401444713935222</v>
       </c>
       <c r="C37" t="n">
-        <v>21.87437439182211</v>
+        <v>3.705569633097991</v>
       </c>
       <c r="D37" t="n">
-        <v>18.95254661094583</v>
+        <v>7.199111045904702</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2631778921200769</v>
+        <v>1.000621424767886</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1154757218758478</v>
+        <v>2.18868463918068</v>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1190,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4076867502207175</v>
+        <v>2.854961520394617</v>
       </c>
       <c r="C38" t="n">
-        <v>26.70365433401193</v>
+        <v>4.497288052085582</v>
       </c>
       <c r="D38" t="n">
-        <v>22.62205657364914</v>
+        <v>8.795109100547757</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1799140222094678</v>
+        <v>1.56495220687249</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4260656202081455</v>
+        <v>2.887724753963988</v>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1210,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5022886389112884</v>
+        <v>6.275438730393545</v>
       </c>
       <c r="C39" t="n">
-        <v>13.42500769694725</v>
+        <v>6.627169352592533</v>
       </c>
       <c r="D39" t="n">
-        <v>13.0842869847321</v>
+        <v>8.961444371529296</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6874004144586194</v>
+        <v>5.693530073375517</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4809282251420476</v>
+        <v>6.685296176356744</v>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1230,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.121758954038974</v>
+        <v>2.807592001306185</v>
       </c>
       <c r="C40" t="n">
-        <v>5.05304364816718</v>
+        <v>3.190718189972662</v>
       </c>
       <c r="D40" t="n">
-        <v>4.867445265376897</v>
+        <v>5.170623518438938</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2144850234112141</v>
+        <v>1.219485611205011</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1175716891290591</v>
+        <v>2.953874107714799</v>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1250,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2851323307230669</v>
+        <v>3.597374281638359</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2923841047575755</v>
+        <v>4.418533664667961</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3126442778132125</v>
+        <v>6.293773056001347</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2921044504976784</v>
+        <v>2.413909654804448</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4059339737285432</v>
+        <v>3.189261321130327</v>
       </c>
     </row>
     <row r="42">
@@ -1270,19 +1270,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1552366145717358</v>
+        <v>3.021064228679154</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1872806654687478</v>
+        <v>3.679916095679498</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1497722125020052</v>
+        <v>6.80738920283884</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2081303766247689</v>
+        <v>1.08252374693313</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2199073214621775</v>
+        <v>2.742230573036719</v>
       </c>
     </row>
     <row r="43">
@@ -1290,19 +1290,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6361877939508737</v>
+        <v>2.459956549543745</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4221187901764695</v>
+        <v>3.269819698750565</v>
       </c>
       <c r="D43" t="n">
-        <v>0.406860196342164</v>
+        <v>6.082926669224895</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6134057910553145</v>
+        <v>1.17526329008726</v>
       </c>
       <c r="F43" t="n">
-        <v>0.49919715717177</v>
+        <v>2.3739461136872</v>
       </c>
     </row>
     <row r="44">
@@ -1310,19 +1310,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4027658501547853</v>
+        <v>6.783625940883483</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1952800280745828</v>
+        <v>6.85789414508564</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2362650207730629</v>
+        <v>8.648424698835511</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5634561948652497</v>
+        <v>5.96002413616367</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1973477228522031</v>
+        <v>6.501673165028247</v>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1330,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5624193699871527</v>
+        <v>2.755364088563764</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4894040274712894</v>
+        <v>3.575325336624818</v>
       </c>
       <c r="D45" t="n">
-        <v>0.503732627119479</v>
+        <v>8.449485259700637</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5198730303331012</v>
+        <v>1.342704728442785</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3720464836049159</v>
+        <v>3.395774657839008</v>
       </c>
     </row>
     <row r="46">
@@ -1350,19 +1350,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4821181830591121</v>
+        <v>3.731813770224458</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4487578330708664</v>
+        <v>5.735884154912244</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5558234185802159</v>
+        <v>10.32676924038133</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5704486436859159</v>
+        <v>1.92281511473975</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4031482971199948</v>
+        <v>3.842488545195184</v>
       </c>
     </row>
     <row r="47">
@@ -1370,19 +1370,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1311070315264082</v>
+        <v>3.741960497946019</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09283327738218679</v>
+        <v>4.186459721347107</v>
       </c>
       <c r="D47" t="n">
-        <v>0.12430669212443</v>
+        <v>8.360466506009059</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08087920088817212</v>
+        <v>2.336488169294445</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1214971081045091</v>
+        <v>3.927576201824436</v>
       </c>
     </row>
     <row r="48">
@@ -1390,19 +1390,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2146018833327139</v>
+        <v>2.313662074016992</v>
       </c>
       <c r="C48" t="n">
-        <v>0.21390718881215</v>
+        <v>2.085974047060042</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1659367967188792</v>
+        <v>5.99294661237934</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1756121407960971</v>
+        <v>1.117757423857136</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2155368115428241</v>
+        <v>2.727844560109367</v>
       </c>
     </row>
     <row r="49">
@@ -1410,19 +1410,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3369728833369094</v>
+        <v>2.342563903672026</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2709654737883123</v>
+        <v>2.646531869250534</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2674104405231924</v>
+        <v>5.810489880394749</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2536857644122389</v>
+        <v>1.667005566517819</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1944312055233383</v>
+        <v>2.36832623388883</v>
       </c>
     </row>
     <row r="50">
@@ -1430,19 +1430,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2550554127757698</v>
+        <v>1.908598703561944</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2298772593994312</v>
+        <v>2.42118099718434</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2157200791146895</v>
+        <v>6.287424162267021</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1732499998963853</v>
+        <v>0.8185179724258212</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2074498700961431</v>
+        <v>2.266066719639261</v>
       </c>
     </row>
     <row r="51">
@@ -1450,19 +1450,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1.064471774086339</v>
+        <v>1.989206435393205</v>
       </c>
       <c r="C51" t="n">
-        <v>1.161533634083793</v>
+        <v>2.430208958954881</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9997641290494694</v>
+        <v>6.279805266742377</v>
       </c>
       <c r="E51" t="n">
-        <v>1.173970155761035</v>
+        <v>1.125337258329404</v>
       </c>
       <c r="F51" t="n">
-        <v>1.098877701728105</v>
+        <v>2.003517839952158</v>
       </c>
     </row>
   </sheetData>
